--- a/überblick.xlsx
+++ b/überblick.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FF408AE014F022B433F983CF0B652AFE1D5AAEA4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="628" yWindow="79" windowWidth="23930" windowHeight="13039" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="628" yWindow="79" windowWidth="23930" windowHeight="13039"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -13,27 +12,17 @@
   <definedNames>
     <definedName name="Max_Date" localSheetId="0">all!$A$62</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcMode="autoNoTable" iterate="1" iterateCount="2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" calcMode="autoNoTable" iterate="1" iterateCount="2"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F133" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="E139" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,14 +177,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="dd/mm/;@"/>
-    <numFmt numFmtId="169" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="dd/mm/;@"/>
+    <numFmt numFmtId="168" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -459,152 +448,161 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -642,9 +640,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,26 +675,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,26 +710,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -921,93 +885,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:BE185"/>
+  <dimension ref="A1:BE189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F156" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.70703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="6.06640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="5.93359375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.44921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="2.6953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.01171875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.93359375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.1015625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.6953125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.01171875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.93359375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.1015625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="2.6953125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="7.01171875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="5.93359375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="3.1015625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="2.6953125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="7.01171875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="5.93359375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="3.1015625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="2.6953125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="7.01171875" style="6" customWidth="1"/>
-    <col min="24" max="24" width="5.93359375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="3.1015625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="2.6953125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="7.01171875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="5.93359375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="3.1015625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="2.6953125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="7.01171875" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.93359375" style="4" customWidth="1"/>
-    <col min="33" max="33" width="3.1015625" style="4" customWidth="1"/>
-    <col min="34" max="34" width="2.6953125" style="4" customWidth="1"/>
-    <col min="35" max="35" width="7.01171875" style="6" customWidth="1"/>
-    <col min="36" max="36" width="5.93359375" style="4" customWidth="1"/>
-    <col min="37" max="37" width="3.1015625" style="4" customWidth="1"/>
-    <col min="38" max="38" width="2.6953125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="7.01171875" style="6" customWidth="1"/>
-    <col min="40" max="40" width="5.93359375" style="4" customWidth="1"/>
-    <col min="41" max="41" width="3.1015625" style="4" customWidth="1"/>
-    <col min="42" max="42" width="2.6953125" style="4" customWidth="1"/>
-    <col min="43" max="43" width="7.01171875" style="6" customWidth="1"/>
-    <col min="44" max="44" width="5.93359375" style="4" customWidth="1"/>
-    <col min="45" max="45" width="3.1015625" style="4" customWidth="1"/>
-    <col min="46" max="46" width="2.6953125" style="4" customWidth="1"/>
-    <col min="47" max="47" width="7.01171875" style="6" customWidth="1"/>
-    <col min="48" max="48" width="5.93359375" style="4" customWidth="1"/>
-    <col min="49" max="49" width="3.1015625" style="4" customWidth="1"/>
-    <col min="50" max="50" width="2.6953125" style="4" customWidth="1"/>
-    <col min="51" max="51" width="7.01171875" style="6" customWidth="1"/>
-    <col min="52" max="52" width="5.93359375" style="4" customWidth="1"/>
-    <col min="53" max="53" width="3.1015625" style="4" customWidth="1"/>
-    <col min="54" max="54" width="2.6953125" style="4" customWidth="1"/>
-    <col min="55" max="55" width="7.01171875" style="6" customWidth="1"/>
-    <col min="56" max="56" width="5.93359375" style="4" customWidth="1"/>
-    <col min="57" max="57" width="3.1015625" style="4" customWidth="1"/>
-    <col min="58" max="16384" width="11.0546875" style="4"/>
+    <col min="1" max="1" width="9.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="58" customWidth="1"/>
+    <col min="4" max="4" width="6" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="2.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="2.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="2.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7" style="6" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="3.125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="2.75" style="4" customWidth="1"/>
+    <col min="19" max="19" width="7" style="6" customWidth="1"/>
+    <col min="20" max="20" width="5.875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="3.125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="2.75" style="4" customWidth="1"/>
+    <col min="23" max="23" width="7" style="6" customWidth="1"/>
+    <col min="24" max="24" width="5.875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="3.125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="2.75" style="4" customWidth="1"/>
+    <col min="27" max="27" width="7" style="6" customWidth="1"/>
+    <col min="28" max="28" width="5.875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="3.125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="2.75" style="4" customWidth="1"/>
+    <col min="31" max="31" width="7" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.875" style="4" customWidth="1"/>
+    <col min="33" max="33" width="3.125" style="4" customWidth="1"/>
+    <col min="34" max="34" width="2.75" style="4" customWidth="1"/>
+    <col min="35" max="35" width="7" style="6" customWidth="1"/>
+    <col min="36" max="36" width="5.875" style="4" customWidth="1"/>
+    <col min="37" max="37" width="3.125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="2.75" style="4" customWidth="1"/>
+    <col min="39" max="39" width="7" style="6" customWidth="1"/>
+    <col min="40" max="40" width="5.875" style="4" customWidth="1"/>
+    <col min="41" max="41" width="3.125" style="4" customWidth="1"/>
+    <col min="42" max="42" width="2.75" style="4" customWidth="1"/>
+    <col min="43" max="43" width="7" style="6" customWidth="1"/>
+    <col min="44" max="44" width="5.875" style="4" customWidth="1"/>
+    <col min="45" max="45" width="3.125" style="4" customWidth="1"/>
+    <col min="46" max="46" width="2.75" style="4" customWidth="1"/>
+    <col min="47" max="47" width="7" style="6" customWidth="1"/>
+    <col min="48" max="48" width="5.875" style="4" customWidth="1"/>
+    <col min="49" max="49" width="3.125" style="4" customWidth="1"/>
+    <col min="50" max="50" width="2.75" style="4" customWidth="1"/>
+    <col min="51" max="51" width="7" style="6" customWidth="1"/>
+    <col min="52" max="52" width="5.875" style="4" customWidth="1"/>
+    <col min="53" max="53" width="3.125" style="4" customWidth="1"/>
+    <col min="54" max="54" width="2.75" style="4" customWidth="1"/>
+    <col min="55" max="55" width="7" style="6" customWidth="1"/>
+    <col min="56" max="56" width="5.875" style="4" customWidth="1"/>
+    <col min="57" max="57" width="3.125" style="4" customWidth="1"/>
+    <col min="58" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="E1" s="119" t="s">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="E1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="119"/>
-      <c r="T1" s="118">
+      <c r="F1" s="116"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="116"/>
+      <c r="T1" s="115">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1026,135 +990,135 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="116"/>
+      <c r="H2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="113"/>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="116"/>
+      <c r="L2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="113"/>
       <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="116"/>
+      <c r="P2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="113"/>
       <c r="R2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="115" t="s">
+      <c r="S2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="116"/>
+      <c r="T2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="113"/>
       <c r="V2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="115" t="s">
+      <c r="W2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="116"/>
+      <c r="X2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="113"/>
       <c r="Z2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="115" t="s">
+      <c r="AA2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="116"/>
+      <c r="AB2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="113"/>
       <c r="AD2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="115" t="s">
+      <c r="AE2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="116"/>
+      <c r="AF2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="113"/>
       <c r="AH2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="115" t="s">
+      <c r="AI2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="116"/>
+      <c r="AJ2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="113"/>
       <c r="AL2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="115" t="s">
+      <c r="AM2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="116"/>
+      <c r="AN2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="113"/>
       <c r="AP2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="115" t="s">
+      <c r="AQ2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AR2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="116"/>
+      <c r="AR2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="113"/>
       <c r="AT2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="115" t="s">
+      <c r="AU2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="116"/>
+      <c r="AV2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="113"/>
       <c r="AX2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY2" s="115" t="s">
+      <c r="AY2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="116"/>
+      <c r="AZ2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="113"/>
       <c r="BB2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BC2" s="115" t="s">
+      <c r="BC2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="BD2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="116"/>
+      <c r="BD2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="113"/>
     </row>
-    <row r="3" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44005</v>
       </c>
@@ -1243,7 +1207,7 @@
       <c r="BD3" s="9"/>
       <c r="BE3" s="14"/>
     </row>
-    <row r="4" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="95"/>
       <c r="C4" s="45">
@@ -1334,7 +1298,7 @@
       <c r="BD4" s="46"/>
       <c r="BE4" s="24"/>
     </row>
-    <row r="5" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="95"/>
       <c r="C5" s="45">
@@ -1431,7 +1395,7 @@
       <c r="BD5" s="46"/>
       <c r="BE5" s="24"/>
     </row>
-    <row r="6" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="95"/>
       <c r="C6" s="45">
@@ -1442,7 +1406,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E6" s="114">
+      <c r="E6" s="111">
         <v>-10</v>
       </c>
       <c r="F6" s="5">
@@ -1540,7 +1504,7 @@
       <c r="BD6" s="46"/>
       <c r="BE6" s="24"/>
     </row>
-    <row r="7" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="C7" s="45">
         <f t="shared" si="1"/>
@@ -1636,7 +1600,7 @@
       <c r="BD7" s="46"/>
       <c r="BE7" s="24"/>
     </row>
-    <row r="8" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="C8" s="45">
         <f t="shared" si="1"/>
@@ -1720,7 +1684,7 @@
       <c r="BD8" s="46"/>
       <c r="BE8" s="24"/>
     </row>
-    <row r="9" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="C9" s="45">
         <f t="shared" si="1"/>
@@ -1804,7 +1768,7 @@
       <c r="BD9" s="46"/>
       <c r="BE9" s="24"/>
     </row>
-    <row r="10" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="95"/>
       <c r="C10" s="45">
@@ -1815,7 +1779,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="114">
         <v>5</v>
       </c>
       <c r="F10" s="5">
@@ -1907,7 +1871,7 @@
       <c r="BD10" s="46"/>
       <c r="BE10" s="24"/>
     </row>
-    <row r="11" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="95"/>
       <c r="C11" s="45">
@@ -1998,7 +1962,7 @@
       <c r="BD11" s="46"/>
       <c r="BE11" s="24"/>
     </row>
-    <row r="12" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="95"/>
       <c r="C12" s="45">
@@ -2095,7 +2059,7 @@
       <c r="BD12" s="46"/>
       <c r="BE12" s="24"/>
     </row>
-    <row r="13" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="45">
@@ -2180,7 +2144,7 @@
       <c r="BD13" s="46"/>
       <c r="BE13" s="24"/>
     </row>
-    <row r="14" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" s="45">
         <f t="shared" si="1"/>
@@ -2258,7 +2222,7 @@
       <c r="BD14" s="46"/>
       <c r="BE14" s="24"/>
     </row>
-    <row r="15" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="C15" s="45">
         <f t="shared" si="1"/>
@@ -2268,7 +2232,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="114">
         <v>5</v>
       </c>
       <c r="F15" s="5">
@@ -2336,7 +2300,7 @@
       <c r="BD15" s="46"/>
       <c r="BE15" s="24"/>
     </row>
-    <row r="16" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="C16" s="45">
         <f t="shared" si="1"/>
@@ -2408,7 +2372,7 @@
       <c r="BD16" s="46"/>
       <c r="BE16" s="24"/>
     </row>
-    <row r="17" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>44005</v>
       </c>
@@ -2503,7 +2467,7 @@
       <c r="BD17" s="33"/>
       <c r="BE17" s="38"/>
     </row>
-    <row r="18" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="95"/>
       <c r="C18" s="45">
@@ -2600,7 +2564,7 @@
       <c r="BD18" s="46"/>
       <c r="BE18" s="24"/>
     </row>
-    <row r="19" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="95"/>
       <c r="C19" s="45">
@@ -2695,7 +2659,7 @@
       <c r="BD19" s="46"/>
       <c r="BE19" s="24"/>
     </row>
-    <row r="20" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45">
@@ -2770,7 +2734,7 @@
       <c r="BD20" s="46"/>
       <c r="BE20" s="24"/>
     </row>
-    <row r="21" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>44005</v>
       </c>
@@ -2877,7 +2841,7 @@
       <c r="BD21" s="33"/>
       <c r="BE21" s="38"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="B22" s="4"/>
       <c r="C22" s="21">
@@ -2962,7 +2926,7 @@
       <c r="BD22" s="22"/>
       <c r="BE22" s="24"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="95"/>
       <c r="C23" s="21">
@@ -3083,7 +3047,7 @@
       <c r="BD23" s="22"/>
       <c r="BE23" s="24"/>
     </row>
-    <row r="24" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="95"/>
       <c r="C24" s="21">
@@ -3156,7 +3120,7 @@
       <c r="BD24" s="22"/>
       <c r="BE24" s="24"/>
     </row>
-    <row r="25" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44006</v>
       </c>
@@ -3263,7 +3227,7 @@
       <c r="BD25" s="9"/>
       <c r="BE25" s="14"/>
     </row>
-    <row r="26" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="95"/>
       <c r="C26" s="45">
@@ -3372,7 +3336,7 @@
       <c r="BD26" s="46"/>
       <c r="BE26" s="24"/>
     </row>
-    <row r="27" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="95"/>
       <c r="C27" s="45">
@@ -3481,7 +3445,7 @@
       <c r="BD27" s="46"/>
       <c r="BE27" s="24"/>
     </row>
-    <row r="28" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>44006</v>
       </c>
@@ -3600,7 +3564,7 @@
       <c r="BD28" s="33"/>
       <c r="BE28" s="38"/>
     </row>
-    <row r="29" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>44006</v>
       </c>
@@ -3719,7 +3683,7 @@
       <c r="BD29" s="33"/>
       <c r="BE29" s="38"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="95"/>
       <c r="C30" s="21">
@@ -3828,7 +3792,7 @@
       <c r="BD30" s="22"/>
       <c r="BE30" s="24"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="95"/>
       <c r="C31" s="21">
@@ -3931,7 +3895,7 @@
       <c r="BD31" s="22"/>
       <c r="BE31" s="24"/>
     </row>
-    <row r="32" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>44006</v>
       </c>
@@ -4044,7 +4008,7 @@
       <c r="BD32" s="33"/>
       <c r="BE32" s="38"/>
     </row>
-    <row r="33" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="95"/>
       <c r="C33" s="45">
@@ -4141,7 +4105,7 @@
       <c r="BD33" s="46"/>
       <c r="BE33" s="24"/>
     </row>
-    <row r="34" spans="1:57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="95"/>
       <c r="C34" s="45">
@@ -4226,7 +4190,7 @@
       <c r="BD34" s="46"/>
       <c r="BE34" s="24"/>
     </row>
-    <row r="35" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44007</v>
       </c>
@@ -4351,7 +4315,7 @@
       <c r="BD35" s="9"/>
       <c r="BE35" s="14"/>
     </row>
-    <row r="36" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="95"/>
       <c r="C36" s="45">
@@ -4472,7 +4436,7 @@
       <c r="BD36" s="46"/>
       <c r="BE36" s="24"/>
     </row>
-    <row r="37" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="95"/>
       <c r="C37" s="45">
@@ -4593,7 +4557,7 @@
       <c r="BD37" s="46"/>
       <c r="BE37" s="24"/>
     </row>
-    <row r="38" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45">
@@ -4666,7 +4630,7 @@
       <c r="BD38" s="46"/>
       <c r="BE38" s="24"/>
     </row>
-    <row r="39" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>44007</v>
       </c>
@@ -4767,7 +4731,7 @@
       <c r="BD39" s="33"/>
       <c r="BE39" s="38"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="95"/>
       <c r="C40" s="21">
@@ -4888,7 +4852,7 @@
       <c r="BD40" s="22"/>
       <c r="BE40" s="24"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="B41" s="95"/>
       <c r="C41" s="21">
@@ -4991,7 +4955,7 @@
       <c r="BD41" s="22"/>
       <c r="BE41" s="24"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
       <c r="B42" s="63"/>
       <c r="C42" s="21">
@@ -5064,7 +5028,7 @@
       <c r="BD42" s="22"/>
       <c r="BE42" s="24"/>
     </row>
-    <row r="43" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>44007</v>
       </c>
@@ -5189,7 +5153,7 @@
       <c r="BD43" s="33"/>
       <c r="BE43" s="38"/>
     </row>
-    <row r="44" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>44007</v>
       </c>
@@ -5314,7 +5278,7 @@
       <c r="BD44" s="33"/>
       <c r="BE44" s="38"/>
     </row>
-    <row r="45" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>44007</v>
       </c>
@@ -5439,7 +5403,7 @@
       <c r="BD45" s="33"/>
       <c r="BE45" s="38"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
       <c r="B46" s="95"/>
       <c r="C46" s="21">
@@ -5554,7 +5518,7 @@
       <c r="BD46" s="22"/>
       <c r="BE46" s="24"/>
     </row>
-    <row r="47" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
         <v>44007</v>
       </c>
@@ -5679,7 +5643,7 @@
       <c r="BD47" s="33"/>
       <c r="BE47" s="38"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
       <c r="B48" s="95"/>
       <c r="C48" s="21">
@@ -5782,7 +5746,7 @@
       <c r="BD48" s="22"/>
       <c r="BE48" s="24"/>
     </row>
-    <row r="49" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="54"/>
       <c r="B49" s="95"/>
       <c r="C49" s="21">
@@ -5855,7 +5819,7 @@
       <c r="BD49" s="22"/>
       <c r="BE49" s="24"/>
     </row>
-    <row r="50" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44008</v>
       </c>
@@ -5986,7 +5950,7 @@
       <c r="BD50" s="9"/>
       <c r="BE50" s="14"/>
     </row>
-    <row r="51" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="95"/>
       <c r="C51" s="45">
@@ -6107,7 +6071,7 @@
       <c r="BD51" s="46"/>
       <c r="BE51" s="24"/>
     </row>
-    <row r="52" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="44"/>
       <c r="C52" s="45">
@@ -6222,7 +6186,7 @@
       <c r="BD52" s="46"/>
       <c r="BE52" s="24"/>
     </row>
-    <row r="53" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>44008</v>
       </c>
@@ -6335,7 +6299,7 @@
       <c r="BD53" s="33"/>
       <c r="BE53" s="38"/>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A54" s="54"/>
       <c r="B54" s="95"/>
       <c r="C54" s="21">
@@ -6432,7 +6396,7 @@
       <c r="BD54" s="22"/>
       <c r="BE54" s="24"/>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A55" s="54"/>
       <c r="B55" s="63"/>
       <c r="C55" s="21">
@@ -6517,7 +6481,7 @@
       <c r="BD55" s="22"/>
       <c r="BE55" s="24"/>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A56" s="54"/>
       <c r="B56" s="63"/>
       <c r="C56" s="21">
@@ -6602,7 +6566,7 @@
       <c r="BD56" s="22"/>
       <c r="BE56" s="24"/>
     </row>
-    <row r="57" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>44008</v>
       </c>
@@ -6733,7 +6697,7 @@
       <c r="BD57" s="33"/>
       <c r="BE57" s="38"/>
     </row>
-    <row r="58" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="95"/>
       <c r="C58" s="45">
@@ -6824,7 +6788,7 @@
       <c r="BD58" s="46"/>
       <c r="BE58" s="24"/>
     </row>
-    <row r="59" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="44"/>
       <c r="C59" s="45">
@@ -6897,7 +6861,7 @@
       <c r="BD59" s="46"/>
       <c r="BE59" s="24"/>
     </row>
-    <row r="60" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>44008</v>
       </c>
@@ -7028,7 +6992,7 @@
       <c r="BD60" s="33"/>
       <c r="BE60" s="38"/>
     </row>
-    <row r="61" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>44008</v>
       </c>
@@ -7141,7 +7105,7 @@
       <c r="BD61" s="33"/>
       <c r="BE61" s="38"/>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
       <c r="B62" s="95"/>
       <c r="C62" s="21">
@@ -7256,7 +7220,7 @@
       <c r="BD62" s="22"/>
       <c r="BE62" s="24"/>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A63" s="54"/>
       <c r="B63" s="95"/>
       <c r="C63" s="21">
@@ -7383,7 +7347,7 @@
       <c r="BD63" s="22"/>
       <c r="BE63" s="24"/>
     </row>
-    <row r="64" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
         <v>44008</v>
       </c>
@@ -7514,7 +7478,7 @@
       <c r="BD64" s="33"/>
       <c r="BE64" s="38"/>
     </row>
-    <row r="65" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="54"/>
       <c r="B65" s="95"/>
       <c r="C65" s="21">
@@ -7641,7 +7605,7 @@
       <c r="BD65" s="22"/>
       <c r="BE65" s="24"/>
     </row>
-    <row r="66" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>44009</v>
       </c>
@@ -7778,7 +7742,7 @@
       <c r="BD66" s="9"/>
       <c r="BE66" s="14"/>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
       <c r="B67" s="95"/>
       <c r="C67" s="21">
@@ -7911,7 +7875,7 @@
       <c r="BD67" s="22"/>
       <c r="BE67" s="24"/>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A68" s="54"/>
       <c r="B68" s="63"/>
       <c r="C68" s="21">
@@ -8014,7 +7978,7 @@
       <c r="BD68" s="22"/>
       <c r="BE68" s="24"/>
     </row>
-    <row r="69" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="C69" s="21">
         <f t="shared" si="7"/>
@@ -8140,7 +8104,7 @@
       <c r="BD69" s="46"/>
       <c r="BE69" s="24"/>
     </row>
-    <row r="70" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31">
         <v>44009</v>
       </c>
@@ -8271,7 +8235,7 @@
       <c r="BD70" s="33"/>
       <c r="BE70" s="38"/>
     </row>
-    <row r="71" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="C71" s="21">
         <f t="shared" si="7"/>
@@ -8403,7 +8367,7 @@
       <c r="BD71" s="46"/>
       <c r="BE71" s="24"/>
     </row>
-    <row r="72" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31">
         <v>44009</v>
       </c>
@@ -8540,7 +8504,7 @@
       <c r="BD72" s="33"/>
       <c r="BE72" s="38"/>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A73" s="54"/>
       <c r="B73" s="95"/>
       <c r="C73" s="21">
@@ -8667,7 +8631,7 @@
       <c r="BD73" s="22"/>
       <c r="BE73" s="24"/>
     </row>
-    <row r="74" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31">
         <v>44009</v>
       </c>
@@ -8798,7 +8762,7 @@
       <c r="BD74" s="33"/>
       <c r="BE74" s="38"/>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A75" s="54"/>
       <c r="B75" s="4"/>
       <c r="C75" s="21">
@@ -8913,7 +8877,7 @@
       <c r="BD75" s="22"/>
       <c r="BE75" s="24"/>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A76" s="54"/>
       <c r="B76" s="95"/>
       <c r="C76" s="21">
@@ -9046,7 +9010,7 @@
       <c r="BD76" s="22"/>
       <c r="BE76" s="24"/>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A77" s="54"/>
       <c r="B77" s="95"/>
       <c r="C77" s="21">
@@ -9125,7 +9089,7 @@
       <c r="BD77" s="22"/>
       <c r="BE77" s="24"/>
     </row>
-    <row r="78" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="31">
         <v>44009</v>
       </c>
@@ -9262,7 +9226,7 @@
       <c r="BD78" s="33"/>
       <c r="BE78" s="38"/>
     </row>
-    <row r="79" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="54"/>
       <c r="B79" s="95"/>
       <c r="C79" s="21">
@@ -9395,7 +9359,7 @@
       <c r="BD79" s="22"/>
       <c r="BE79" s="24"/>
     </row>
-    <row r="80" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>44010</v>
       </c>
@@ -9538,7 +9502,7 @@
       <c r="BD80" s="9"/>
       <c r="BE80" s="14"/>
     </row>
-    <row r="81" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="44"/>
       <c r="C81" s="45">
@@ -9677,7 +9641,7 @@
       <c r="BD81" s="46"/>
       <c r="BE81" s="24"/>
     </row>
-    <row r="82" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
         <v>44010</v>
       </c>
@@ -9820,7 +9784,7 @@
       <c r="BD82" s="33"/>
       <c r="BE82" s="38"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A83" s="54"/>
       <c r="B83" s="63"/>
       <c r="C83" s="21">
@@ -9895,7 +9859,7 @@
       <c r="BD83" s="22"/>
       <c r="BE83" s="24"/>
     </row>
-    <row r="84" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
         <v>44010</v>
       </c>
@@ -10038,7 +10002,7 @@
       <c r="BD84" s="33"/>
       <c r="BE84" s="38"/>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
       <c r="B85" s="63"/>
       <c r="C85" s="21">
@@ -10161,7 +10125,7 @@
       <c r="BD85" s="22"/>
       <c r="BE85" s="24"/>
     </row>
-    <row r="86" spans="1:57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="C86" s="45">
         <f t="shared" si="7"/>
@@ -10271,7 +10235,7 @@
       <c r="BD86" s="46"/>
       <c r="BE86" s="24"/>
     </row>
-    <row r="87" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>44011</v>
       </c>
@@ -10420,7 +10384,7 @@
       </c>
       <c r="BE87" s="14"/>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
       <c r="B88" s="95"/>
       <c r="C88" s="21">
@@ -10513,7 +10477,7 @@
       <c r="BD88" s="22"/>
       <c r="BE88" s="24"/>
     </row>
-    <row r="89" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <v>44011</v>
       </c>
@@ -10656,7 +10620,7 @@
       <c r="BD89" s="33"/>
       <c r="BE89" s="38"/>
     </row>
-    <row r="90" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="95"/>
       <c r="C90" s="45">
@@ -10791,7 +10755,7 @@
       <c r="BD90" s="46"/>
       <c r="BE90" s="24"/>
     </row>
-    <row r="91" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="96"/>
       <c r="C91" s="45">
@@ -10874,7 +10838,7 @@
       <c r="BD91" s="46"/>
       <c r="BE91" s="24"/>
     </row>
-    <row r="92" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="31">
         <v>44011</v>
       </c>
@@ -11017,7 +10981,7 @@
       <c r="BD92" s="33"/>
       <c r="BE92" s="38"/>
     </row>
-    <row r="93" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="96"/>
       <c r="C93" s="45">
@@ -11154,7 +11118,7 @@
       <c r="BD93" s="46"/>
       <c r="BE93" s="24"/>
     </row>
-    <row r="94" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="96"/>
       <c r="C94" s="45">
@@ -11253,7 +11217,7 @@
       <c r="BD94" s="46"/>
       <c r="BE94" s="24"/>
     </row>
-    <row r="95" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="31">
         <v>44011</v>
       </c>
@@ -11402,7 +11366,7 @@
       </c>
       <c r="BE95" s="38"/>
     </row>
-    <row r="96" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="96"/>
       <c r="C96" s="45">
@@ -11541,7 +11505,7 @@
       <c r="BD96" s="46"/>
       <c r="BE96" s="24"/>
     </row>
-    <row r="97" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="31">
         <v>44011</v>
       </c>
@@ -11678,7 +11642,7 @@
       <c r="BD97" s="33"/>
       <c r="BE97" s="38"/>
     </row>
-    <row r="98" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="44"/>
       <c r="C98" s="45">
@@ -11787,7 +11751,7 @@
       <c r="BD98" s="46"/>
       <c r="BE98" s="24"/>
     </row>
-    <row r="99" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
         <v>44011</v>
       </c>
@@ -11918,7 +11882,7 @@
       <c r="BD99" s="33"/>
       <c r="BE99" s="38"/>
     </row>
-    <row r="100" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="44"/>
       <c r="C100" s="45">
@@ -12027,7 +11991,7 @@
       <c r="BD100" s="46"/>
       <c r="BE100" s="24"/>
     </row>
-    <row r="101" spans="1:57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="C101" s="45">
         <f t="shared" si="7"/>
@@ -12101,7 +12065,7 @@
       <c r="BD101" s="46"/>
       <c r="BE101" s="24"/>
     </row>
-    <row r="102" spans="1:57" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:57" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="78">
         <v>44012</v>
       </c>
@@ -12250,7 +12214,7 @@
       </c>
       <c r="BE102" s="85"/>
     </row>
-    <row r="103" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="31">
         <v>44012</v>
       </c>
@@ -12393,7 +12357,7 @@
       <c r="BD103" s="33"/>
       <c r="BE103" s="38"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A104" s="54"/>
       <c r="B104" s="95"/>
       <c r="C104" s="21">
@@ -12514,7 +12478,7 @@
       <c r="BD104" s="22"/>
       <c r="BE104" s="24"/>
     </row>
-    <row r="105" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31">
         <v>44012</v>
       </c>
@@ -12663,7 +12627,7 @@
       </c>
       <c r="BE105" s="38"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A106" s="54"/>
       <c r="B106" s="95"/>
       <c r="C106" s="21">
@@ -12802,7 +12766,7 @@
       <c r="BD106" s="22"/>
       <c r="BE106" s="24"/>
     </row>
-    <row r="107" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31">
         <v>44012</v>
       </c>
@@ -12951,7 +12915,7 @@
       </c>
       <c r="BE107" s="38"/>
     </row>
-    <row r="108" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
       <c r="B108" s="96"/>
       <c r="C108" s="45">
@@ -13084,7 +13048,7 @@
       <c r="BD108" s="46"/>
       <c r="BE108" s="24"/>
     </row>
-    <row r="109" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="96"/>
       <c r="C109" s="45">
@@ -13171,7 +13135,7 @@
       <c r="BD109" s="46"/>
       <c r="BE109" s="24"/>
     </row>
-    <row r="110" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="31">
         <v>44012</v>
       </c>
@@ -13308,7 +13272,7 @@
       <c r="BD110" s="33"/>
       <c r="BE110" s="38"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A111" s="54"/>
       <c r="B111" s="95"/>
       <c r="C111" s="21">
@@ -13423,7 +13387,7 @@
       <c r="BD111" s="22"/>
       <c r="BE111" s="24"/>
     </row>
-    <row r="112" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="31">
         <v>44012</v>
       </c>
@@ -13572,7 +13536,7 @@
       </c>
       <c r="BE112" s="38"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A113" s="54"/>
       <c r="B113" s="95"/>
       <c r="C113" s="21">
@@ -13645,7 +13609,7 @@
       <c r="BD113" s="22"/>
       <c r="BE113" s="24"/>
     </row>
-    <row r="114" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="31">
         <v>44012</v>
       </c>
@@ -13794,7 +13758,7 @@
       </c>
       <c r="BE114" s="38"/>
     </row>
-    <row r="115" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="96"/>
       <c r="C115" s="45">
@@ -13933,7 +13897,7 @@
       <c r="BD115" s="46"/>
       <c r="BE115" s="24"/>
     </row>
-    <row r="116" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="96"/>
       <c r="C116" s="45">
@@ -14054,7 +14018,7 @@
       <c r="BD116" s="46"/>
       <c r="BE116" s="24"/>
     </row>
-    <row r="117" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="96"/>
       <c r="C117" s="45">
@@ -14145,7 +14109,7 @@
       <c r="BD117" s="46"/>
       <c r="BE117" s="24"/>
     </row>
-    <row r="118" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="31">
         <v>44012</v>
       </c>
@@ -14294,7 +14258,7 @@
       </c>
       <c r="BE118" s="38"/>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A119" s="54"/>
       <c r="B119" s="95"/>
       <c r="C119" s="21">
@@ -14433,7 +14397,7 @@
       <c r="BD119" s="22"/>
       <c r="BE119" s="24"/>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C120" s="21">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -14558,7 +14522,7 @@
       <c r="BD120" s="22"/>
       <c r="BE120" s="24"/>
     </row>
-    <row r="121" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="31">
         <v>44012</v>
       </c>
@@ -14707,7 +14671,7 @@
       </c>
       <c r="BE121" s="38"/>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A122" s="54"/>
       <c r="B122" s="95"/>
       <c r="C122" s="21">
@@ -14852,7 +14816,7 @@
       </c>
       <c r="BE122" s="24"/>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A123" s="54"/>
       <c r="B123" s="95"/>
       <c r="C123" s="21">
@@ -14997,7 +14961,7 @@
       </c>
       <c r="BE123" s="24"/>
     </row>
-    <row r="124" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C124" s="21">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -15092,7 +15056,7 @@
       <c r="BD124" s="22"/>
       <c r="BE124" s="24"/>
     </row>
-    <row r="125" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>44013</v>
       </c>
@@ -15241,7 +15205,7 @@
       </c>
       <c r="BE125" s="14"/>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C126" s="21">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -15371,7 +15335,7 @@
       <c r="BD126" s="22"/>
       <c r="BE126" s="24"/>
     </row>
-    <row r="127" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="31">
         <v>44013</v>
       </c>
@@ -15520,7 +15484,7 @@
       </c>
       <c r="BE127" s="38"/>
     </row>
-    <row r="128" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
         <v>44013</v>
       </c>
@@ -15645,7 +15609,7 @@
       <c r="BD128" s="33"/>
       <c r="BE128" s="38"/>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C129" s="21">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -15739,7 +15703,7 @@
       <c r="BD129" s="22"/>
       <c r="BE129" s="24"/>
     </row>
-    <row r="130" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="31">
         <v>44013</v>
       </c>
@@ -15888,7 +15852,7 @@
       </c>
       <c r="BE130" s="38"/>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A131" s="54"/>
       <c r="C131" s="21">
         <f t="shared" si="7"/>
@@ -16032,7 +15996,7 @@
       </c>
       <c r="BE131" s="24"/>
     </row>
-    <row r="132" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <v>44013</v>
       </c>
@@ -16181,11 +16145,11 @@
       </c>
       <c r="BE132" s="38"/>
     </row>
-    <row r="133" spans="1:57" s="113" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="107">
+    <row r="133" spans="1:57" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="104">
         <v>44013</v>
       </c>
-      <c r="B133" s="108">
+      <c r="B133" s="105">
         <v>0.70833333333333337</v>
       </c>
       <c r="C133" s="32">
@@ -16209,120 +16173,120 @@
         <v>10</v>
       </c>
       <c r="I133" s="38"/>
-      <c r="J133" s="109">
-        <v>8</v>
-      </c>
-      <c r="K133" s="110">
+      <c r="J133" s="106">
+        <v>8</v>
+      </c>
+      <c r="K133" s="107">
         <v>44001</v>
       </c>
       <c r="L133" s="41">
         <v>10</v>
       </c>
       <c r="M133" s="38"/>
-      <c r="N133" s="109">
+      <c r="N133" s="106">
         <v>7</v>
       </c>
-      <c r="O133" s="110">
+      <c r="O133" s="107">
         <v>44002</v>
       </c>
       <c r="P133" s="41">
         <v>10</v>
       </c>
       <c r="Q133" s="38"/>
-      <c r="R133" s="109">
-        <v>5</v>
-      </c>
-      <c r="S133" s="110">
+      <c r="R133" s="106">
+        <v>5</v>
+      </c>
+      <c r="S133" s="107">
         <v>44003</v>
       </c>
       <c r="T133" s="39">
         <v>10</v>
       </c>
       <c r="U133" s="38"/>
-      <c r="V133" s="109">
+      <c r="V133" s="106">
         <v>3</v>
       </c>
-      <c r="W133" s="110">
+      <c r="W133" s="107">
         <v>44004</v>
       </c>
       <c r="X133" s="39">
         <v>10</v>
       </c>
       <c r="Y133" s="38"/>
-      <c r="Z133" s="109">
+      <c r="Z133" s="106">
         <v>2</v>
       </c>
-      <c r="AA133" s="110">
+      <c r="AA133" s="107">
         <v>44005</v>
       </c>
       <c r="AB133" s="39">
         <v>0</v>
       </c>
       <c r="AC133" s="38"/>
-      <c r="AD133" s="111">
+      <c r="AD133" s="108">
         <v>2</v>
       </c>
-      <c r="AE133" s="112">
+      <c r="AE133" s="109">
         <v>44006</v>
       </c>
       <c r="AF133" s="39">
         <v>10</v>
       </c>
       <c r="AG133" s="38"/>
-      <c r="AH133" s="109">
-        <v>1</v>
-      </c>
-      <c r="AI133" s="110">
+      <c r="AH133" s="106">
+        <v>1</v>
+      </c>
+      <c r="AI133" s="107">
         <v>44007</v>
       </c>
       <c r="AJ133" s="39">
         <v>10</v>
       </c>
       <c r="AK133" s="38"/>
-      <c r="AL133" s="109">
-        <v>1</v>
-      </c>
-      <c r="AM133" s="110">
+      <c r="AL133" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM133" s="107">
         <v>44008</v>
       </c>
       <c r="AN133" s="41">
         <v>0</v>
       </c>
       <c r="AO133" s="38"/>
-      <c r="AP133" s="109">
-        <v>1</v>
-      </c>
-      <c r="AQ133" s="110">
+      <c r="AP133" s="106">
+        <v>1</v>
+      </c>
+      <c r="AQ133" s="107">
         <v>44009</v>
       </c>
       <c r="AR133" s="41">
         <v>0</v>
       </c>
       <c r="AS133" s="38"/>
-      <c r="AT133" s="109">
-        <v>1</v>
-      </c>
-      <c r="AU133" s="110">
+      <c r="AT133" s="106">
+        <v>1</v>
+      </c>
+      <c r="AU133" s="107">
         <v>44010</v>
       </c>
       <c r="AV133" s="41">
         <v>10</v>
       </c>
       <c r="AW133" s="38"/>
-      <c r="AX133" s="109">
-        <v>1</v>
-      </c>
-      <c r="AY133" s="110">
+      <c r="AX133" s="106">
+        <v>1</v>
+      </c>
+      <c r="AY133" s="107">
         <v>44011</v>
       </c>
       <c r="AZ133" s="41">
         <v>10</v>
       </c>
       <c r="BA133" s="38"/>
-      <c r="BB133" s="109">
-        <v>1</v>
-      </c>
-      <c r="BC133" s="110">
+      <c r="BB133" s="106">
+        <v>1</v>
+      </c>
+      <c r="BC133" s="107">
         <v>44012</v>
       </c>
       <c r="BD133" s="41">
@@ -16330,7 +16294,7 @@
       </c>
       <c r="BE133" s="38"/>
     </row>
-    <row r="134" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="1"/>
       <c r="C134" s="45">
@@ -16469,7 +16433,7 @@
       <c r="BD134" s="46"/>
       <c r="BE134" s="24"/>
     </row>
-    <row r="135" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="43"/>
       <c r="B135" s="1"/>
       <c r="C135" s="45">
@@ -16614,7 +16578,7 @@
       </c>
       <c r="BE135" s="24"/>
     </row>
-    <row r="136" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31">
         <v>44013</v>
       </c>
@@ -16763,7 +16727,7 @@
       </c>
       <c r="BE136" s="38"/>
     </row>
-    <row r="137" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="1"/>
       <c r="C137" s="45">
@@ -16908,7 +16872,7 @@
       </c>
       <c r="BE137" s="24"/>
     </row>
-    <row r="138" spans="1:57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="1"/>
       <c r="C138" s="45">
@@ -17053,7 +17017,7 @@
       </c>
       <c r="BE138" s="24"/>
     </row>
-    <row r="139" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>44014</v>
       </c>
@@ -17068,7 +17032,7 @@
         <f t="shared" si="10"/>
         <v>130</v>
       </c>
-      <c r="E139" s="105">
+      <c r="E139" s="102">
         <v>10</v>
       </c>
       <c r="F139" s="11">
@@ -17202,7 +17166,7 @@
       </c>
       <c r="BE139" s="14"/>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A140" s="54"/>
       <c r="C140" s="21">
         <f t="shared" si="11"/>
@@ -17212,7 +17176,7 @@
         <f t="shared" si="10"/>
         <v>130</v>
       </c>
-      <c r="E140" s="106">
+      <c r="E140" s="103">
         <v>10</v>
       </c>
       <c r="F140" s="5">
@@ -17346,7 +17310,7 @@
       </c>
       <c r="BE140" s="24"/>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C141" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17355,7 +17319,7 @@
         <f t="shared" si="10"/>
         <v>130</v>
       </c>
-      <c r="E141" s="106">
+      <c r="E141" s="103">
         <v>10</v>
       </c>
       <c r="F141" s="27">
@@ -17489,7 +17453,7 @@
       </c>
       <c r="BE141" s="24"/>
     </row>
-    <row r="142" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="31">
         <v>44014</v>
       </c>
@@ -17638,7 +17602,7 @@
       </c>
       <c r="BE142" s="38"/>
     </row>
-    <row r="143" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="31">
         <v>44014</v>
       </c>
@@ -17787,7 +17751,7 @@
       </c>
       <c r="BE143" s="38"/>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C144" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17875,7 +17839,7 @@
       <c r="BD144" s="22"/>
       <c r="BE144" s="24"/>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C145" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17945,7 +17909,7 @@
       <c r="BD145" s="22"/>
       <c r="BE145" s="24"/>
     </row>
-    <row r="146" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31">
         <v>44014</v>
       </c>
@@ -18094,7 +18058,7 @@
       </c>
       <c r="BE146" s="38"/>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A147" s="54"/>
       <c r="C147" s="21">
         <f t="shared" si="11"/>
@@ -18238,7 +18202,7 @@
       </c>
       <c r="BE147" s="24"/>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C148" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -18350,7 +18314,7 @@
       <c r="BD148" s="22"/>
       <c r="BE148" s="24"/>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C149" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -18438,7 +18402,7 @@
       <c r="BD149" s="22"/>
       <c r="BE149" s="24"/>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C150" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -18532,7 +18496,7 @@
       <c r="BD150" s="22"/>
       <c r="BE150" s="24"/>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C151" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -18604,7 +18568,7 @@
       <c r="BD151" s="22"/>
       <c r="BE151" s="24"/>
     </row>
-    <row r="152" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="31">
         <v>44014</v>
       </c>
@@ -18753,7 +18717,7 @@
       </c>
       <c r="BE152" s="38"/>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A153" s="54"/>
       <c r="C153" s="21">
         <f t="shared" si="11"/>
@@ -18873,7 +18837,7 @@
       <c r="BD153" s="22"/>
       <c r="BE153" s="24"/>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A154" s="54"/>
       <c r="C154" s="21">
         <f t="shared" si="11"/>
@@ -18981,7 +18945,7 @@
       <c r="BD154" s="22"/>
       <c r="BE154" s="24"/>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A155" s="54"/>
       <c r="C155" s="21">
         <f t="shared" si="11"/>
@@ -19053,7 +19017,7 @@
       <c r="BD155" s="22"/>
       <c r="BE155" s="24"/>
     </row>
-    <row r="156" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="31">
         <v>44014</v>
       </c>
@@ -19202,7 +19166,7 @@
       </c>
       <c r="BE156" s="38"/>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A157" s="54"/>
       <c r="C157" s="21">
         <f t="shared" si="11"/>
@@ -19346,7 +19310,7 @@
       </c>
       <c r="BE157" s="24"/>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A158" s="54"/>
       <c r="C158" s="21">
         <f t="shared" si="11"/>
@@ -19460,7 +19424,7 @@
       <c r="BD158" s="22"/>
       <c r="BE158" s="24"/>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C159" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -19590,7 +19554,7 @@
       <c r="BD159" s="22"/>
       <c r="BE159" s="24"/>
     </row>
-    <row r="160" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="31">
         <v>44014</v>
       </c>
@@ -19739,7 +19703,7 @@
       </c>
       <c r="BE160" s="38"/>
     </row>
-    <row r="161" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="31">
         <v>44014</v>
       </c>
@@ -19888,7 +19852,7 @@
       </c>
       <c r="BE161" s="38"/>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A162" s="54"/>
       <c r="C162" s="21">
         <f t="shared" si="11"/>
@@ -20032,7 +19996,7 @@
       </c>
       <c r="BE162" s="24"/>
     </row>
-    <row r="163" spans="1:57" s="65" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" s="65" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="64"/>
       <c r="B163" s="64"/>
       <c r="C163" s="66">
@@ -20146,7 +20110,7 @@
       <c r="BD163" s="67"/>
       <c r="BE163" s="70"/>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A164" s="54">
         <v>44015</v>
       </c>
@@ -20295,7 +20259,7 @@
       </c>
       <c r="BE164" s="24"/>
     </row>
-    <row r="165" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="1"/>
       <c r="C165" s="45">
@@ -20440,7 +20404,7 @@
       </c>
       <c r="BE165" s="24"/>
     </row>
-    <row r="166" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="45">
@@ -20585,7 +20549,7 @@
       </c>
       <c r="BE166" s="24"/>
     </row>
-    <row r="167" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="45">
@@ -20730,7 +20694,7 @@
       </c>
       <c r="BE167" s="24"/>
     </row>
-    <row r="168" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="31">
         <v>44015</v>
       </c>
@@ -20879,7 +20843,7 @@
       </c>
       <c r="BE168" s="38"/>
     </row>
-    <row r="169" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="45">
@@ -21024,7 +20988,7 @@
       </c>
       <c r="BE169" s="24"/>
     </row>
-    <row r="170" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="45">
@@ -21169,7 +21133,7 @@
       </c>
       <c r="BE170" s="24"/>
     </row>
-    <row r="171" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="31">
         <v>44015</v>
       </c>
@@ -21318,7 +21282,7 @@
       </c>
       <c r="BE171" s="38"/>
     </row>
-    <row r="172" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="45">
@@ -21456,7 +21420,7 @@
       <c r="BD172" s="46"/>
       <c r="BE172" s="24"/>
     </row>
-    <row r="173" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="31">
         <v>44015</v>
       </c>
@@ -21605,7 +21569,7 @@
       </c>
       <c r="BE173" s="38"/>
     </row>
-    <row r="174" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="31">
         <v>44015</v>
       </c>
@@ -21754,7 +21718,7 @@
       </c>
       <c r="BE174" s="38"/>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C175" s="62">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -21897,7 +21861,7 @@
       </c>
       <c r="BE175" s="24"/>
     </row>
-    <row r="176" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C176" s="62">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -22003,7 +21967,7 @@
       <c r="BD176" s="22"/>
       <c r="BE176" s="24"/>
     </row>
-    <row r="177" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>44016</v>
       </c>
@@ -22015,7 +21979,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="9">
-        <f t="shared" ref="D177:D184" si="14">SUM(H177,L177,P177,T177,X177,AB177,AF177,AJ177,AN177,AR177,AV177,AZ177,BD177)</f>
+        <f t="shared" ref="D177:D189" si="14">SUM(H177,L177,P177,T177,X177,AB177,AF177,AJ177,AN177,AR177,AV177,AZ177,BD177)</f>
         <v>130</v>
       </c>
       <c r="E177" s="9">
@@ -22152,7 +22116,7 @@
       </c>
       <c r="BE177" s="14"/>
     </row>
-    <row r="178" spans="1:57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="43"/>
       <c r="B178" s="95"/>
       <c r="C178" s="45">
@@ -22231,7 +22195,7 @@
       <c r="BD178" s="46"/>
       <c r="BE178" s="24"/>
     </row>
-    <row r="179" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="31">
         <v>44016</v>
       </c>
@@ -22380,7 +22344,7 @@
       </c>
       <c r="BE179" s="38"/>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A180" s="54"/>
       <c r="B180" s="95"/>
       <c r="C180" s="21">
@@ -22453,7 +22417,7 @@
       <c r="BD180" s="22"/>
       <c r="BE180" s="24"/>
     </row>
-    <row r="181" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:57" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="31">
         <v>44016</v>
       </c>
@@ -22602,7 +22566,7 @@
       </c>
       <c r="BE181" s="38"/>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A182" s="54"/>
       <c r="B182" s="95"/>
       <c r="C182" s="21">
@@ -22747,7 +22711,7 @@
       </c>
       <c r="BE182" s="24"/>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A183" s="54"/>
       <c r="B183" s="95"/>
       <c r="C183" s="21">
@@ -22892,7 +22856,7 @@
       </c>
       <c r="BE183" s="24"/>
     </row>
-    <row r="184" spans="1:57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" customFormat="1" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="43"/>
       <c r="C184" s="45">
         <f t="shared" si="11"/>
@@ -22964,23 +22928,662 @@
       <c r="BD184" s="46"/>
       <c r="BE184" s="24"/>
     </row>
-    <row r="185" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="102"/>
-      <c r="B185" s="102"/>
-      <c r="C185" s="103"/>
-      <c r="G185" s="104"/>
-      <c r="K185" s="104"/>
-      <c r="O185" s="104"/>
-      <c r="S185" s="104"/>
-      <c r="W185" s="104"/>
-      <c r="AA185" s="104"/>
-      <c r="AE185" s="104"/>
-      <c r="AI185" s="104"/>
-      <c r="AM185" s="104"/>
-      <c r="AQ185" s="104"/>
-      <c r="AU185" s="104"/>
-      <c r="AY185" s="104"/>
-      <c r="BC185" s="104"/>
+    <row r="185" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <v>44017</v>
+      </c>
+      <c r="B185" s="97">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C185" s="8">
+        <v>1</v>
+      </c>
+      <c r="D185" s="9">
+        <v>65</v>
+      </c>
+      <c r="E185" s="9">
+        <v>5</v>
+      </c>
+      <c r="F185" s="11">
+        <v>6</v>
+      </c>
+      <c r="G185" s="12">
+        <v>44016</v>
+      </c>
+      <c r="H185" s="13">
+        <v>5</v>
+      </c>
+      <c r="I185" s="14"/>
+      <c r="J185" s="11">
+        <v>8</v>
+      </c>
+      <c r="K185" s="12">
+        <v>44015</v>
+      </c>
+      <c r="L185" s="91">
+        <v>5</v>
+      </c>
+      <c r="M185" s="14"/>
+      <c r="N185" s="11">
+        <v>8</v>
+      </c>
+      <c r="O185" s="12">
+        <v>44014</v>
+      </c>
+      <c r="P185" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q185" s="14"/>
+      <c r="R185" s="11">
+        <v>8</v>
+      </c>
+      <c r="S185" s="12">
+        <v>44013</v>
+      </c>
+      <c r="T185" s="15">
+        <v>5</v>
+      </c>
+      <c r="U185" s="14"/>
+      <c r="V185" s="11">
+        <v>5</v>
+      </c>
+      <c r="W185" s="12">
+        <v>44012</v>
+      </c>
+      <c r="X185" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y185" s="14"/>
+      <c r="Z185" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA185" s="12">
+        <v>44011</v>
+      </c>
+      <c r="AB185" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC185" s="14"/>
+      <c r="AD185" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE185" s="12">
+        <v>44010</v>
+      </c>
+      <c r="AF185" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG185" s="18"/>
+      <c r="AH185" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI185" s="12">
+        <v>44009</v>
+      </c>
+      <c r="AJ185" s="15">
+        <v>5</v>
+      </c>
+      <c r="AK185" s="18"/>
+      <c r="AL185" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM185" s="12">
+        <v>44008</v>
+      </c>
+      <c r="AN185" s="15">
+        <v>5</v>
+      </c>
+      <c r="AO185" s="18"/>
+      <c r="AP185" s="11">
+        <v>1</v>
+      </c>
+      <c r="AQ185" s="12">
+        <v>44007</v>
+      </c>
+      <c r="AR185" s="15">
+        <v>5</v>
+      </c>
+      <c r="AS185" s="18"/>
+      <c r="AT185" s="11">
+        <v>1</v>
+      </c>
+      <c r="AU185" s="12">
+        <v>44006</v>
+      </c>
+      <c r="AV185" s="15">
+        <v>5</v>
+      </c>
+      <c r="AW185" s="18"/>
+      <c r="AX185" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY185" s="12">
+        <v>44005</v>
+      </c>
+      <c r="AZ185" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA185" s="18"/>
+      <c r="BB185" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC185" s="12">
+        <v>44004</v>
+      </c>
+      <c r="BD185" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE185" s="14"/>
+    </row>
+    <row r="186" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A186" s="54"/>
+      <c r="B186" s="95"/>
+      <c r="C186" s="21">
+        <v>1</v>
+      </c>
+      <c r="D186" s="22">
+        <v>60</v>
+      </c>
+      <c r="E186" s="22">
+        <v>5</v>
+      </c>
+      <c r="F186" s="5">
+        <v>6</v>
+      </c>
+      <c r="G186" s="25">
+        <v>44016</v>
+      </c>
+      <c r="H186" s="29">
+        <v>5</v>
+      </c>
+      <c r="I186" s="24"/>
+      <c r="J186" s="5">
+        <v>8</v>
+      </c>
+      <c r="K186" s="25">
+        <v>44015</v>
+      </c>
+      <c r="L186" s="30">
+        <v>5</v>
+      </c>
+      <c r="M186" s="24"/>
+      <c r="N186" s="5">
+        <v>8</v>
+      </c>
+      <c r="O186" s="25">
+        <v>44014</v>
+      </c>
+      <c r="P186" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q186" s="24"/>
+      <c r="R186" s="5">
+        <v>8</v>
+      </c>
+      <c r="S186" s="25">
+        <v>44013</v>
+      </c>
+      <c r="T186" s="26">
+        <v>5</v>
+      </c>
+      <c r="U186" s="24"/>
+      <c r="V186" s="5">
+        <v>5</v>
+      </c>
+      <c r="W186" s="25">
+        <v>44012</v>
+      </c>
+      <c r="X186" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y186" s="24"/>
+      <c r="Z186" s="27">
+        <v>3</v>
+      </c>
+      <c r="AA186" s="25">
+        <v>44011</v>
+      </c>
+      <c r="AB186" s="26">
+        <v>5</v>
+      </c>
+      <c r="AC186" s="24"/>
+      <c r="AD186" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE186" s="25">
+        <v>44010</v>
+      </c>
+      <c r="AF186" s="29">
+        <v>5</v>
+      </c>
+      <c r="AG186" s="47"/>
+      <c r="AH186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI186" s="25">
+        <v>44009</v>
+      </c>
+      <c r="AJ186" s="26">
+        <v>5</v>
+      </c>
+      <c r="AK186" s="47"/>
+      <c r="AL186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM186" s="25">
+        <v>44008</v>
+      </c>
+      <c r="AN186" s="26">
+        <v>5</v>
+      </c>
+      <c r="AO186" s="47"/>
+      <c r="AP186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ186" s="25">
+        <v>44007</v>
+      </c>
+      <c r="AR186" s="26">
+        <v>5</v>
+      </c>
+      <c r="AS186" s="47"/>
+      <c r="AT186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU186" s="25">
+        <v>44006</v>
+      </c>
+      <c r="AV186" s="26">
+        <v>5</v>
+      </c>
+      <c r="AW186" s="47"/>
+      <c r="AX186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY186" s="25">
+        <v>44005</v>
+      </c>
+      <c r="AZ186" s="29">
+        <v>5</v>
+      </c>
+      <c r="BA186" s="47"/>
+      <c r="BB186" s="5"/>
+      <c r="BC186" s="25"/>
+      <c r="BD186" s="22"/>
+      <c r="BE186" s="24"/>
+    </row>
+    <row r="187" spans="1:57" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="54"/>
+      <c r="B187" s="95"/>
+      <c r="C187" s="21">
+        <v>1</v>
+      </c>
+      <c r="D187" s="22">
+        <v>55</v>
+      </c>
+      <c r="E187" s="22">
+        <v>5</v>
+      </c>
+      <c r="F187" s="5">
+        <v>6</v>
+      </c>
+      <c r="G187" s="25">
+        <v>44016</v>
+      </c>
+      <c r="H187" s="29">
+        <v>5</v>
+      </c>
+      <c r="I187" s="24"/>
+      <c r="J187" s="5">
+        <v>8</v>
+      </c>
+      <c r="K187" s="25">
+        <v>44015</v>
+      </c>
+      <c r="L187" s="30">
+        <v>5</v>
+      </c>
+      <c r="M187" s="24"/>
+      <c r="N187" s="5">
+        <v>8</v>
+      </c>
+      <c r="O187" s="25">
+        <v>44014</v>
+      </c>
+      <c r="P187" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q187" s="24"/>
+      <c r="R187" s="5">
+        <v>8</v>
+      </c>
+      <c r="S187" s="25">
+        <v>44013</v>
+      </c>
+      <c r="T187" s="26">
+        <v>5</v>
+      </c>
+      <c r="U187" s="24"/>
+      <c r="V187" s="5">
+        <v>5</v>
+      </c>
+      <c r="W187" s="25">
+        <v>44012</v>
+      </c>
+      <c r="X187" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y187" s="24"/>
+      <c r="Z187" s="27">
+        <v>3</v>
+      </c>
+      <c r="AA187" s="25">
+        <v>44011</v>
+      </c>
+      <c r="AB187" s="26">
+        <v>5</v>
+      </c>
+      <c r="AC187" s="24"/>
+      <c r="AD187" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE187" s="25">
+        <v>44010</v>
+      </c>
+      <c r="AF187" s="29">
+        <v>5</v>
+      </c>
+      <c r="AG187" s="47"/>
+      <c r="AH187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI187" s="25">
+        <v>44009</v>
+      </c>
+      <c r="AJ187" s="26">
+        <v>5</v>
+      </c>
+      <c r="AK187" s="47"/>
+      <c r="AL187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM187" s="25">
+        <v>44008</v>
+      </c>
+      <c r="AN187" s="26">
+        <v>5</v>
+      </c>
+      <c r="AO187" s="47"/>
+      <c r="AP187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ187" s="25">
+        <v>44007</v>
+      </c>
+      <c r="AR187" s="26">
+        <v>5</v>
+      </c>
+      <c r="AS187" s="47"/>
+      <c r="AT187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU187" s="25">
+        <v>44006</v>
+      </c>
+      <c r="AV187" s="26">
+        <v>5</v>
+      </c>
+      <c r="AW187" s="47"/>
+      <c r="AX187" s="5"/>
+      <c r="AY187" s="25"/>
+      <c r="AZ187" s="29"/>
+      <c r="BA187" s="47"/>
+      <c r="BB187" s="5"/>
+      <c r="BC187" s="25"/>
+      <c r="BD187" s="22"/>
+      <c r="BE187" s="24"/>
+    </row>
+    <row r="188" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>44018</v>
+      </c>
+      <c r="B188" s="97">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C188" s="8">
+        <v>2</v>
+      </c>
+      <c r="D188" s="9">
+        <v>130</v>
+      </c>
+      <c r="E188" s="9">
+        <v>5</v>
+      </c>
+      <c r="F188" s="11">
+        <v>6</v>
+      </c>
+      <c r="G188" s="12">
+        <v>44017</v>
+      </c>
+      <c r="H188" s="13">
+        <v>10</v>
+      </c>
+      <c r="I188" s="14"/>
+      <c r="J188" s="11">
+        <v>8</v>
+      </c>
+      <c r="K188" s="12">
+        <v>44016</v>
+      </c>
+      <c r="L188" s="91">
+        <v>10</v>
+      </c>
+      <c r="M188" s="14"/>
+      <c r="N188" s="11">
+        <v>8</v>
+      </c>
+      <c r="O188" s="12">
+        <v>44015</v>
+      </c>
+      <c r="P188" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q188" s="14"/>
+      <c r="R188" s="11">
+        <v>8</v>
+      </c>
+      <c r="S188" s="12">
+        <v>44014</v>
+      </c>
+      <c r="T188" s="15">
+        <v>10</v>
+      </c>
+      <c r="U188" s="14"/>
+      <c r="V188" s="11">
+        <v>5</v>
+      </c>
+      <c r="W188" s="12">
+        <v>44013</v>
+      </c>
+      <c r="X188" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y188" s="14"/>
+      <c r="Z188" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA188" s="12">
+        <v>44012</v>
+      </c>
+      <c r="AB188" s="15">
+        <v>10</v>
+      </c>
+      <c r="AC188" s="14"/>
+      <c r="AD188" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE188" s="12">
+        <v>44011</v>
+      </c>
+      <c r="AF188" s="15">
+        <v>10</v>
+      </c>
+      <c r="AG188" s="18"/>
+      <c r="AH188" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI188" s="12">
+        <v>44010</v>
+      </c>
+      <c r="AJ188" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK188" s="18"/>
+      <c r="AL188" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM188" s="12">
+        <v>44009</v>
+      </c>
+      <c r="AN188" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO188" s="18"/>
+      <c r="AP188" s="11">
+        <v>1</v>
+      </c>
+      <c r="AQ188" s="12">
+        <v>44008</v>
+      </c>
+      <c r="AR188" s="15">
+        <v>10</v>
+      </c>
+      <c r="AS188" s="18"/>
+      <c r="AT188" s="11">
+        <v>1</v>
+      </c>
+      <c r="AU188" s="12">
+        <v>44007</v>
+      </c>
+      <c r="AV188" s="15">
+        <v>10</v>
+      </c>
+      <c r="AW188" s="18"/>
+      <c r="AX188" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY188" s="12">
+        <v>44006</v>
+      </c>
+      <c r="AZ188" s="15">
+        <v>10</v>
+      </c>
+      <c r="BA188" s="18"/>
+      <c r="BB188" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC188" s="12">
+        <v>44005</v>
+      </c>
+      <c r="BD188" s="9">
+        <v>10</v>
+      </c>
+      <c r="BE188" s="14"/>
+    </row>
+    <row r="189" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A189" s="54"/>
+      <c r="B189" s="95"/>
+      <c r="C189" s="21">
+        <v>1</v>
+      </c>
+      <c r="D189" s="22">
+        <v>25</v>
+      </c>
+      <c r="E189" s="22">
+        <v>5</v>
+      </c>
+      <c r="F189" s="5">
+        <v>6</v>
+      </c>
+      <c r="G189" s="25">
+        <v>44016</v>
+      </c>
+      <c r="H189" s="29">
+        <v>5</v>
+      </c>
+      <c r="I189" s="24"/>
+      <c r="J189" s="5">
+        <v>8</v>
+      </c>
+      <c r="K189" s="25">
+        <v>44015</v>
+      </c>
+      <c r="L189" s="30">
+        <v>5</v>
+      </c>
+      <c r="M189" s="24"/>
+      <c r="N189" s="5">
+        <v>8</v>
+      </c>
+      <c r="O189" s="25">
+        <v>44014</v>
+      </c>
+      <c r="P189" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q189" s="24"/>
+      <c r="R189" s="5">
+        <v>8</v>
+      </c>
+      <c r="S189" s="25">
+        <v>44013</v>
+      </c>
+      <c r="T189" s="26">
+        <v>5</v>
+      </c>
+      <c r="U189" s="24"/>
+      <c r="V189" s="5">
+        <v>5</v>
+      </c>
+      <c r="W189" s="25">
+        <v>44012</v>
+      </c>
+      <c r="X189" s="26">
+        <v>5</v>
+      </c>
+      <c r="Y189" s="24"/>
+      <c r="Z189" s="27"/>
+      <c r="AA189" s="25"/>
+      <c r="AB189" s="26"/>
+      <c r="AC189" s="24"/>
+      <c r="AD189" s="27"/>
+      <c r="AE189" s="25"/>
+      <c r="AF189" s="26"/>
+      <c r="AG189" s="47"/>
+      <c r="AH189" s="5"/>
+      <c r="AI189" s="25"/>
+      <c r="AJ189" s="26"/>
+      <c r="AK189" s="47"/>
+      <c r="AL189" s="5"/>
+      <c r="AM189" s="25"/>
+      <c r="AN189" s="26"/>
+      <c r="AO189" s="47"/>
+      <c r="AP189" s="5"/>
+      <c r="AQ189" s="25"/>
+      <c r="AR189" s="26"/>
+      <c r="AS189" s="47"/>
+      <c r="AT189" s="5"/>
+      <c r="AU189" s="25"/>
+      <c r="AV189" s="26"/>
+      <c r="AW189" s="47"/>
+      <c r="AX189" s="5"/>
+      <c r="AY189" s="25"/>
+      <c r="AZ189" s="26"/>
+      <c r="BA189" s="47"/>
+      <c r="BB189" s="5"/>
+      <c r="BC189" s="25"/>
+      <c r="BD189" s="22"/>
+      <c r="BE189" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
